--- a/ja/application_framework/application_framework/libraries/images/mail/images.xlsx
+++ b/ja/application_framework/application_framework/libraries/images/mail/images.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nablarch\source\others\nablarch-document\ja\application_framework\application_framework\libraries\images\mail\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8DCAC5-AF1D-4AAE-8968-95292A98BBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14940" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,6 +128,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -130,7 +152,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="角丸四角形 82"/>
+        <xdr:cNvPr id="83" name="角丸四角形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -194,7 +222,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="角丸四角形 139"/>
+        <xdr:cNvPr id="140" name="角丸四角形 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -258,7 +292,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="角丸四角形 59"/>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -318,7 +358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="角丸四角形 60"/>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -381,7 +427,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="60" idx="3"/>
           <a:endCxn id="61" idx="1"/>
@@ -431,7 +483,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -494,7 +552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="フローチャート : 磁気ディスク 17"/>
+        <xdr:cNvPr id="18" name="フローチャート : 磁気ディスク 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -558,7 +622,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線矢印コネクタ 72"/>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="61" idx="2"/>
           <a:endCxn id="18" idx="1"/>
@@ -608,7 +678,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="角丸四角形 74"/>
+        <xdr:cNvPr id="75" name="角丸四角形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -671,7 +747,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="角丸四角形 79"/>
+        <xdr:cNvPr id="80" name="角丸四角形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -712,7 +794,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>JavaMail API</a:t>
+            <a:t>Jakarta Mail</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -734,7 +816,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
           <a:endCxn id="75" idx="0"/>
@@ -784,7 +872,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="75" idx="3"/>
           <a:endCxn id="80" idx="1"/>
@@ -839,7 +933,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -932,7 +1032,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1004,7 +1110,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
           <a:endCxn id="5" idx="0"/>
@@ -1054,7 +1166,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="フローチャート : 判断 15"/>
+        <xdr:cNvPr id="16" name="フローチャート : 判断 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1112,7 +1230,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="2"/>
           <a:endCxn id="16" idx="0"/>
@@ -1162,7 +1286,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1220,7 +1350,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="3"/>
           <a:endCxn id="20" idx="1"/>
@@ -1270,7 +1406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvPr id="33" name="角丸四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1367,7 +1509,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="2"/>
           <a:endCxn id="33" idx="0"/>
@@ -1417,7 +1565,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1478,7 +1632,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1539,7 +1699,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="カギ線コネクタ 2"/>
+        <xdr:cNvPr id="3" name="カギ線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="3"/>
           <a:endCxn id="20" idx="2"/>
@@ -1578,7 +1744,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1620,7 +1786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1653,9 +1819,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1688,6 +1871,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1863,11 +2063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI33" sqref="BI33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1886,10 +2086,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="U21:AA25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
